--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2862981.433317757</v>
+        <v>2855964.418426046</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800626</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9101501.585655255</v>
+        <v>9101501.585655253</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>106.7489988643977</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>81.60336787529192</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>47.14167849255917</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>171.7498680634313</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>29.81956111589755</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>27.37813690257489</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>25.1988504432596</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>203.4240451471049</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>27.64309257197516</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481212</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>339.5091118684677</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250831</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229353</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325232</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>196.889762398449</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
         <v>225.8879277888686</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>47.14167849255922</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853721</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.42688879433888</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>23.47284014303594</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.03576683016875</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.04232573950513</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896906</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V19" t="n">
-        <v>57.85017494300117</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.64243440663924</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>111.8652689647497</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>13.46750763503998</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>89.41543781797651</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634875</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>51.18679276169065</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274766</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002201</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>135.5947476878535</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>83.62275566270964</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>115.5269768002203</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1857.168914859137</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="C2" t="n">
-        <v>1857.168914859137</v>
+        <v>143.3161268880446</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>143.3161268880446</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>143.3161268880446</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>136.3706261388411</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1857.168914859137</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2342.015910972395</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>2173.079728044489</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="X4" t="n">
-        <v>2523.664375802635</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="Y4" t="n">
-        <v>2523.664375802635</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1435.441956461044</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C5" t="n">
-        <v>1066.479439520632</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.494407278248</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2669.494407278248</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2669.494407278248</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2415.73262191634</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>2084.669734572769</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500978</v>
+        <v>1731.901079302655</v>
       </c>
       <c r="X5" t="n">
-        <v>2212.181128500978</v>
+        <v>1731.901079302655</v>
       </c>
       <c r="Y5" t="n">
-        <v>1822.041796525166</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.841510736975</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>383.841510736975</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4755,22 +4755,22 @@
         <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>673.2586807739356</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>673.2586807739356</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>673.2586807739356</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W7" t="n">
-        <v>383.841510736975</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X7" t="n">
-        <v>383.841510736975</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.841510736975</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.680947310029</v>
+        <v>1018.50628101231</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.680947310029</v>
+        <v>1018.50628101231</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.680947310029</v>
+        <v>660.2405824055593</v>
       </c>
       <c r="E8" t="n">
-        <v>882.892694711785</v>
+        <v>660.2405824055593</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221774</v>
+        <v>249.2546776159517</v>
       </c>
       <c r="G8" t="n">
-        <v>53.9429818203643</v>
+        <v>235.3312735545426</v>
       </c>
       <c r="H8" t="n">
-        <v>53.9429818203643</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733112</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224049</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280439</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.34544597717</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642683</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791245</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018215</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548707</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548707</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548707</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186799</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186799</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2045.420119349963</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2045.420119349963</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.280787374151</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204938</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615918</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572628</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315293</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414843</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435186</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050014</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>710.5260662323519</v>
+        <v>546.4805193761948</v>
       </c>
       <c r="C10" t="n">
-        <v>541.589883304445</v>
+        <v>546.4805193761948</v>
       </c>
       <c r="D10" t="n">
-        <v>541.589883304445</v>
+        <v>396.3638799638591</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220519</v>
+        <v>248.4507863814659</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220519</v>
+        <v>101.5608388835556</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220519</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.928417154582</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323016</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866321</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477901</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658195</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502481</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594878</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064316</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>710.5260662323519</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>710.5260662323519</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>710.5260662323519</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>710.5260662323519</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>710.5260662323519</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>710.5260662323519</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>710.5260662323519</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>710.5260662323519</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>710.5260662323519</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,25 +5108,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643586</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.3055067228584</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>583.9053937591889</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>435.9923001767958</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>289.1023526788854</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>120.927030998706</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169049</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>620.2426249169049</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>620.2426249169049</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.9539715530981</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5266,43 +5266,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3177283550796</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>731.3177283550796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.3177283550796</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5612,7 +5612,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5700,16 +5700,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>727.647686332073</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
         <v>727.647686332073</v>
@@ -5743,22 +5743,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3741.086798021097</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="C22" t="n">
-        <v>3572.15061509319</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D22" t="n">
-        <v>3572.15061509319</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>3572.15061509319</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3572.15061509319</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>4660.934562929845</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>4371.517392892884</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X22" t="n">
-        <v>4143.527841994867</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y22" t="n">
-        <v>3922.735262851337</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,10 +5992,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6205,19 +6205,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>657.1994242851239</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>657.1994242851239</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488382</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>885.1889751831412</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>885.1889751831412</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>657.1994242851239</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>657.1994242851239</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,19 +6463,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1062.583317521776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1244.231782352015</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,67 +6685,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823799</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514102</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515101</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.8545730143</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231271</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141875</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465308</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121738</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851623</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590543</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614732</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126487</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571619</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636266</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643589</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307622</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.91651652632</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.7227988731099</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>558.786615945203</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>558.786615945203</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>410.8735223628099</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>410.8735223628099</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688078</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119731</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909237</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909237</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3712637033497</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>909.3712637033497</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>909.3712637033497</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.3712637033497</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.32138455061</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610198</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003448</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405203</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155959</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080554</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822533</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028599</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643328</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.8545730143</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231271</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141875</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465308</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121738</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851623</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590543</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614732</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126487</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571619</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636266</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643589</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307622</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.91651652632</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688078</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387593</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011508</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952639</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583033</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>97.217091460286</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7171,31 +7171,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823793</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>181.9314425141177</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K39" t="n">
-        <v>592.8217113586309</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.71878111552</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395483</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059516</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278214</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688078</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035283</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1050.956765431391</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1050.956765431391</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>796.2722772255037</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>506.8551071885431</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>278.8655562905257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905257</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7393,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
         <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823717</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751402</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795201</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643321</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
@@ -7475,37 +7475,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3943.15684602267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3774.220663094763</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3774.220663094763</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3774.220663094763</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4776.387143051959</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U43" t="n">
-        <v>4487.258504265517</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V43" t="n">
-        <v>4232.574016059631</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W43" t="n">
-        <v>3943.15684602267</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X43" t="n">
-        <v>3943.15684602267</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>3943.15684602267</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7712,43 +7712,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7806,52 +7806,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557905</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347411</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609691</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550823</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>441.9005583181217</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201043</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747763</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9640,13 +9640,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776703</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776703</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928253</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>43.65987261462</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776707</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928253</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208019</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>125.4409882245002</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.5488865219261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.7896544424322</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V19" t="n">
-        <v>194.2874683808268</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6043866919886</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>54.62829949862788</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24186,10 +24186,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>238.670135688788</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>77.83138328065132</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>115.3067757016869</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338314</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>85.95281337053578</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>137.9248053956796</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>51.71984429840752</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.5424193956</v>
       </c>
     </row>
     <row r="9">
@@ -26316,46 +26316,46 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934481</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="F2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="H2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="M2" t="n">
         <v>606095.0425934488</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="O2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="K2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934492</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934494</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.042593449</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.042593449</v>
-      </c>
       <c r="P2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.294400881675148e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768979</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.056796008924721e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338376</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512231</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26447,19 +26447,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143877</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340931</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871675</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871675</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871675</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193294.5438843569</v>
+        <v>-193294.5438843568</v>
       </c>
       <c r="C6" t="n">
-        <v>396673.3353301874</v>
+        <v>396673.3353301878</v>
       </c>
       <c r="D6" t="n">
-        <v>396673.3353301893</v>
+        <v>396673.3353301879</v>
       </c>
       <c r="E6" t="n">
-        <v>-26097.98945360552</v>
+        <v>-27072.58071332473</v>
       </c>
       <c r="F6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.4557635714</v>
       </c>
       <c r="G6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.455763571</v>
       </c>
       <c r="H6" t="n">
-        <v>499062.0470232929</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="I6" t="n">
-        <v>499062.0470232931</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="J6" t="n">
-        <v>322638.8278306997</v>
+        <v>321664.2365709783</v>
       </c>
       <c r="K6" t="n">
-        <v>499062.0470232929</v>
+        <v>498087.4557635713</v>
       </c>
       <c r="L6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="M6" t="n">
-        <v>364261.0317894559</v>
+        <v>363286.4405297342</v>
       </c>
       <c r="N6" t="n">
-        <v>499062.0470232932</v>
+        <v>498087.4557635713</v>
       </c>
       <c r="O6" t="n">
-        <v>499062.0470232937</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="P6" t="n">
-        <v>499062.0470232932</v>
+        <v>498087.4557635714</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217085</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545537</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26819,13 +26819,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370152</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990192</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990192</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990192</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>247.9340427562852</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>332.1808021455031</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>165.0038604574597</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>53.9597873256059</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>324.8634805047854</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>27.1002656722368</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>199.8362550148247</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>22.28561024193226</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643572</v>
+        <v>296.279680192382</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448615</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089717</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>9.731856848945313</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>120.1681237664917</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.69586116057568</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.665191980158</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.145538950019</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.729482894743625e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340039</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140993</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554441</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
-        <v>128.886517872743</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081569</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630659</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405356</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338292</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119854</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954657</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.988205504413</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633756</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727367</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473524</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472031</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141074</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118888</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890677</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396442</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649096</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820477999</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983113</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736691</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923038</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.152864647957</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639061</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703496</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131466</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372651</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619129</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078581</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644416</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313491996</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813557</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302204</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246919</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917245</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666589</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175801</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383764</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329677983</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.6281993970115</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
-        <v>11.8710590869533</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197211</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315594</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181305</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343411</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435291</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060953</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492224</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530441</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116788</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898682</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770656</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031292</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713849</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262929</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338893</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245889</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735639</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471536219</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713919</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850081</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535651</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458875</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557977</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873112</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35728,7 +35728,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35737,13 +35737,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35892,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349844</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953158</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091955</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349844</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953158</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091955</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221054</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>85.57005156952697</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594841</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315253</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349844</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.502597509196</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221054</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349844</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523272</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686883</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2855964.418426046</v>
+        <v>2860903.681275076</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -664,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>104.0001894004429</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>81.60336787529192</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>47.14167849255917</v>
+        <v>47.14167849255895</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.37813690257489</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>147.2631865772708</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>37.83808333974872</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>203.4240451471049</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>27.64309257197516</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>163.9206648785253</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>47.14167849255922</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>52.10844059186262</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>23.47284014303594</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>135.3693467804484</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>154.9624699091409</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>224.895256723152</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>21.64243440663924</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>97.94187514616748</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>26.11235250816421</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2845,7 +2845,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.18719652447367</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>115.526976800218</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>146.278729911946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512.2786438284563</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C2" t="n">
-        <v>143.3161268880446</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="D2" t="n">
-        <v>143.3161268880446</v>
+        <v>179.8625829950608</v>
       </c>
       <c r="E2" t="n">
-        <v>143.3161268880446</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>136.3706261388411</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925781</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4494,25 +4494,25 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
         <v>680.5111271432434</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1345.301239238533</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2669.494407278248</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2669.494407278248</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2669.494407278248</v>
+        <v>2548.398397505828</v>
       </c>
       <c r="U5" t="n">
-        <v>2415.73262191634</v>
+        <v>2294.636612143919</v>
       </c>
       <c r="V5" t="n">
-        <v>2084.669734572769</v>
+        <v>1963.573724800349</v>
       </c>
       <c r="W5" t="n">
-        <v>1731.901079302655</v>
+        <v>1610.805069530235</v>
       </c>
       <c r="X5" t="n">
-        <v>1731.901079302655</v>
+        <v>1237.339311269155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1731.901079302655</v>
+        <v>847.1999792933431</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.50628101231</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.50628101231</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>660.2405824055593</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>660.2405824055593</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>249.2546776159517</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>235.3312735545426</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.50628101231</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761948</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761948</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D10" t="n">
-        <v>396.3638799638591</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E10" t="n">
-        <v>248.4507863814659</v>
+        <v>580.2158906240412</v>
       </c>
       <c r="F10" t="n">
-        <v>101.5608388835556</v>
+        <v>433.3259431261308</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>264.3261428644632</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>106.5777702969934</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.0220331715246</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C13" t="n">
-        <v>734.0220331715246</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D13" t="n">
-        <v>583.9053937591889</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E13" t="n">
-        <v>435.9923001767958</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>289.1023526788854</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>120.927030998706</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1051.184443115636</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1051.184443115636</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>796.4999549097488</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150548</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715246</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,31 +5269,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5302,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>718.3993657398219</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2312.465467126435</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.8811773957805</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1399.985083541572</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1399.985083541572</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>1399.985083541572</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>1145.300595335685</v>
       </c>
       <c r="W22" t="n">
-        <v>1044.311772267568</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="X22" t="n">
-        <v>816.3222213695503</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="Y22" t="n">
-        <v>595.5296422260202</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,13 +6165,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1382.222354598086</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6214,22 +6214,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3840174432676</v>
+        <v>731.6365520183392</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4478345153607</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>959.6261029163566</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>959.6261029163566</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170374</v>
+        <v>731.6365520183392</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735073</v>
+        <v>731.6365520183392</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,22 +6475,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,28 +6685,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6715,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1313.886294955175</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6952,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,31 +7113,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7153,19 +7153,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,28 +7350,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1151.239967633105</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>862.1113288466635</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7663,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503156</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>19.14409596997035</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571165</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>234.4116509503161</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633727</v>
       </c>
       <c r="H13" t="n">
-        <v>125.4409882245002</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>86.17821427794081</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>97.17517341468715</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23943,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.3420956754253</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>145.6043866919886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>99.97893483743577</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>226.0252908156638</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>121.0596245741542</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>14.74113413690324</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>103.0576765518768</v>
       </c>
     </row>
     <row r="35">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>75.26883114644326</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271319</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.5424193959</v>
       </c>
     </row>
     <row r="6">
@@ -26319,43 +26319,43 @@
         <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="I2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="L2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934484</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26438,28 +26438,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26527,43 +26527,43 @@
         <v>396673.3353301878</v>
       </c>
       <c r="D6" t="n">
-        <v>396673.3353301879</v>
+        <v>396673.3353301876</v>
       </c>
       <c r="E6" t="n">
-        <v>-27072.58071332473</v>
+        <v>-26195.44857957576</v>
       </c>
       <c r="F6" t="n">
-        <v>498087.4557635714</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="G6" t="n">
-        <v>498087.455763571</v>
+        <v>498964.5878973205</v>
       </c>
       <c r="H6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="I6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="J6" t="n">
-        <v>321664.2365709783</v>
+        <v>322541.3687047277</v>
       </c>
       <c r="K6" t="n">
-        <v>498087.4557635713</v>
+        <v>498964.5878973205</v>
       </c>
       <c r="L6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973205</v>
       </c>
       <c r="M6" t="n">
-        <v>363286.4405297342</v>
+        <v>364163.5726634833</v>
       </c>
       <c r="N6" t="n">
-        <v>498087.4557635713</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="O6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="P6" t="n">
-        <v>498087.4557635714</v>
+        <v>498964.5878973206</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26819,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>277.9301806718188</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>332.1808021455031</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>165.0038604574597</v>
+        <v>165.00386045746</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.1002656722368</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>69.18513378038702</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>141.9938968421886</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>22.28561024193226</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>296.279680192382</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>52.52765547913251</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>120.1681237664917</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047559</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>384.987089538255</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>226.2375109014951</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063405</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
